--- a/figures/ecologies.xlsx
+++ b/figures/ecologies.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\Writing\InfoEcosystem\Information-Ecosystems-and-Ecologies\figures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ecologies" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -85,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,17 +649,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -673,15 +658,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856359E-2"/>
-          <c:y val="8.0086362962469293E-2"/>
-          <c:w val="0.77890254552278126"/>
-          <c:h val="0.8417527417299252"/>
+          <c:x val="5.9632353471856366E-2"/>
+          <c:y val="8.0086362962469335E-2"/>
+          <c:w val="0.77890254552278138"/>
+          <c:h val="0.84175274172992509"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -735,7 +719,17 @@
                     <a:fld id="{F0CECE9F-6157-4DD5-8606-AF057276FD78}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -750,34 +744,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -786,6 +753,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -815,12 +783,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1465,7 +1427,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1520,7 +1481,17 @@
                     <a:fld id="{094E1326-F145-4612-9511-1513574073A2}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -1535,34 +1506,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -1571,6 +1515,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1600,12 +1545,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2250,7 +2189,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2284,7 +2222,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="1.2955464485705464E-2"/>
+                  <c:y val="1.2955464485705465E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2310,7 +2248,17 @@
                     <a:fld id="{555B32C7-D923-46AF-9A22-8434192026A5}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1400" b="1"/>
                       <a:pPr>
-                        <a:defRPr sz="1400" b="1"/>
+                        <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -2325,34 +2273,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -2361,6 +2282,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2390,12 +2312,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3040,7 +2956,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3088,12 +3003,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -3102,6 +3012,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3131,12 +3042,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3781,7 +3686,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3827,12 +3731,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -3841,6 +3740,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3870,12 +3770,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -4520,7 +4414,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4554,7 +4447,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="6.4777322428527318E-3"/>
+                  <c:y val="6.4777322428527335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4571,12 +4464,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -4585,6 +4473,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4614,12 +4503,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -5264,7 +5147,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5299,8 +5181,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428527318E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428527335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5317,12 +5199,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -5331,6 +5208,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5360,12 +5238,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6010,7 +5882,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6045,8 +5916,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428527318E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428527335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6063,12 +5934,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -6077,6 +5943,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6106,12 +5973,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -6756,7 +6617,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6791,8 +6651,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428528905E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428528922E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6809,12 +6669,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -6823,6 +6678,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6852,12 +6708,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -7502,7 +7352,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -7537,7 +7386,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
+                  <c:x val="-1.7924225161062078E-16"/>
                   <c:y val="-1.5114708566656533E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -7555,12 +7404,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -7569,6 +7413,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7598,12 +7443,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -8248,7 +8087,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -8284,7 +8122,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5114708566656376E-2"/>
+                  <c:y val="-1.5114708566656377E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8310,7 +8148,17 @@
                     <a:fld id="{B34EED29-FB30-4390-88DA-AE96EA1A1C67}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -8325,34 +8173,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -8361,6 +8182,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -8390,12 +8212,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -9040,30 +8856,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="898482912"/>
-        <c:axId val="898481232"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="71886720"/>
+        <c:axId val="71888256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="898482912"/>
+        <c:axId val="71886720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9098,20 +8904,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898481232"/>
+        <c:crossAx val="71888256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="898481232"/>
+        <c:axId val="71888256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9124,7 +8928,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9157,7 +8960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898482912"/>
+        <c:crossAx val="71886720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9171,7 +8974,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9200,7 +9002,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -9208,17 +9010,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -9227,15 +9019,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856359E-2"/>
-          <c:y val="8.0086362962469293E-2"/>
-          <c:w val="0.77890254552278126"/>
-          <c:h val="0.8417527417299252"/>
+          <c:x val="5.9632353471856366E-2"/>
+          <c:y val="8.0086362962469335E-2"/>
+          <c:w val="0.77890254552278138"/>
+          <c:h val="0.84175274172992509"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9265,7 +9056,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="100"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -9289,7 +9079,17 @@
                     <a:fld id="{F0CECE9F-6157-4DD5-8606-AF057276FD78}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -9304,34 +9104,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -9340,6 +9113,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9369,12 +9143,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -10019,11 +9787,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>ecologies!$A$4</c:f>
@@ -10053,7 +9820,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="1.2955464485705464E-2"/>
+                  <c:y val="1.2955464485705465E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10079,7 +9846,17 @@
                     <a:fld id="{555B32C7-D923-46AF-9A22-8434192026A5}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1400" b="1"/>
                       <a:pPr>
-                        <a:defRPr sz="1400" b="1"/>
+                        <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -10094,34 +9871,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -10130,6 +9880,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -10159,12 +9910,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -10809,11 +10554,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>ecologies!$A$9</c:f>
@@ -10844,8 +10588,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428527318E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428527335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10862,12 +10606,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -10876,6 +10615,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -10905,12 +10645,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -11555,11 +11289,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>ecologies!$A$10</c:f>
@@ -11590,8 +11323,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428528905E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428528922E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -11608,12 +11341,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -11622,6 +11350,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11651,12 +11380,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -12301,11 +12024,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>ecologies!$A$11</c:f>
@@ -12337,7 +12059,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-8.636976323803643E-3"/>
+                  <c:y val="-8.6369763238036447E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -12354,12 +12076,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -12368,6 +12085,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12397,12 +12115,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -13047,11 +12759,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>ecologies!$A$12</c:f>
@@ -13083,7 +12794,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-2.1592440809509107E-3"/>
+                  <c:y val="-2.1592440809509112E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13109,7 +12820,17 @@
                     <a:fld id="{B34EED29-FB30-4390-88DA-AE96EA1A1C67}" type="SERIESNAME">
                       <a:rPr lang="en-US" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[SERIES NAME]</a:t>
                     </a:fld>
@@ -13124,34 +12845,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -13160,6 +12854,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13189,12 +12884,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -13839,19 +13528,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="834644800"/>
-        <c:axId val="834645920"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="72718208"/>
+        <c:axId val="72719744"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17705,15 +17386,13 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="834644800"/>
+        <c:axId val="72718208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -17748,20 +17427,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834645920"/>
+        <c:crossAx val="72719744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="834645920"/>
+        <c:axId val="72719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -17774,7 +17451,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -17807,7 +17483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834644800"/>
+        <c:crossAx val="72718208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17821,7 +17497,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17850,7 +17525,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -17858,17 +17533,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -17877,15 +17542,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856359E-2"/>
-          <c:y val="8.0086362962469293E-2"/>
+          <c:x val="5.9632353471856366E-2"/>
+          <c:y val="8.0086362962469335E-2"/>
           <c:w val="0.76301498059763606"/>
-          <c:h val="0.8417527417299252"/>
+          <c:h val="0.84175274172992509"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -17917,8 +17581,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="1.2955464485705306E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="1.2955464485705307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -17941,13 +17605,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{884EB634-9361-4F7F-ADDC-F7BACF2B6A9C}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr>
-                        <a:defRPr sz="1200"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
+                      <a:t>political ecosystem</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -17959,34 +17620,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -17995,6 +17629,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -18024,12 +17659,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -18674,7 +18303,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18707,8 +18335,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-1.7273952647607446E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-1.7273952647607449E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -18723,18 +18351,14 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -18764,12 +18388,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -19414,7 +19032,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -19447,8 +19064,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-2.1592440809509107E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-2.1592440809509112E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -19471,13 +19088,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0AA449A0-9704-47CB-BEFE-86F5F628186A}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1400" b="1"/>
-                      <a:pPr>
-                        <a:defRPr sz="1400" b="1"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
+                      <a:t>Information Ecosystem</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -19489,34 +19103,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -19525,6 +19112,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -19554,12 +19142,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -20204,7 +19786,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -20239,8 +19820,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-2.5910928971410927E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-2.5910928971410934E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -20277,40 +19858,14 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -20340,12 +19895,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -20990,7 +20539,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -21023,8 +20571,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2221203788573174E-3"/>
-                  <c:y val="-4.3184881619018215E-3"/>
+                  <c:x val="-1.2221203788573176E-3"/>
+                  <c:y val="-4.3184881619018223E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -21039,18 +20587,14 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -21080,12 +20624,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -21730,7 +21268,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -21763,8 +21300,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-6.4777322428527318E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-6.4777322428527335E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -21801,40 +21338,14 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -21864,12 +21375,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -22514,7 +22019,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -22549,8 +22053,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-2.1592440809509107E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-2.1592440809509113E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -22587,40 +22091,14 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -22650,12 +22128,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -23300,7 +22772,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -23335,8 +22806,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-1.7273952647607286E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-1.7273952647607289E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -23359,13 +22830,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6E7FD702-BFD7-4AF9-9BAB-7A6E2E97C530}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr>
-                        <a:defRPr sz="1200"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
+                      <a:t>cultural ecosystem</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -23377,34 +22845,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -23413,6 +22854,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -23442,12 +22884,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -24092,30 +23528,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="815558608"/>
-        <c:axId val="815559168"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="72771456"/>
+        <c:axId val="72772992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="815558608"/>
+        <c:axId val="72771456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -24150,20 +23576,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815559168"/>
+        <c:crossAx val="72772992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="815559168"/>
+        <c:axId val="72772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -24176,7 +23600,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -24209,7 +23632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815558608"/>
+        <c:crossAx val="72771456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24223,7 +23646,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -24247,7 +23669,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -24255,17 +23677,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -24274,15 +23686,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856359E-2"/>
-          <c:y val="8.0086362962469293E-2"/>
+          <c:x val="5.9632353471856366E-2"/>
+          <c:y val="8.0086362962469335E-2"/>
           <c:w val="0.76301498059763606"/>
-          <c:h val="0.8417527417299252"/>
+          <c:h val="0.84175274172992509"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -24314,8 +23725,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="1.2955464485705306E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="1.2955464485705307E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -24338,14 +23749,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{884EB634-9361-4F7F-ADDC-F7BACF2B6A9C}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr>
-                        <a:defRPr sz="1200"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
+                      <a:t>political ecosystem</a:t>
+                    </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -24356,34 +23763,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -24392,6 +23772,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -24421,12 +23802,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -25071,11 +24446,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>ecosystems!$A$4</c:f>
@@ -25104,8 +24478,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-2.1592440809509107E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-2.1592440809509112E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -25128,13 +24502,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0AA449A0-9704-47CB-BEFE-86F5F628186A}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1400" b="1"/>
-                      <a:pPr>
-                        <a:defRPr sz="1400" b="1"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
+                      <a:t>Information Ecosystem</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -25146,34 +24517,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -25182,6 +24526,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -25211,12 +24556,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -25861,11 +25200,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>ecosystems!$A$7</c:f>
@@ -25894,8 +25232,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="4.3184881619018215E-3"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="4.3184881619018223E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -25932,40 +25270,14 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -25995,12 +25307,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -26645,11 +25951,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>ecosystems!$A$8</c:f>
@@ -26680,8 +25985,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-2.1592440809509107E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-2.1592440809509113E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -26718,40 +26023,14 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -26781,12 +26060,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -27431,11 +26704,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>ecosystems!$A$9</c:f>
@@ -27466,8 +26738,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062061E-16"/>
-                  <c:y val="-1.7273952647607286E-2"/>
+                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:y val="-1.7273952647607289E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -27490,13 +26762,10 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6E7FD702-BFD7-4AF9-9BAB-7A6E2E97C530}" type="SERIESNAME">
+                    <a:r>
                       <a:rPr lang="en-US" sz="1200"/>
-                      <a:pPr>
-                        <a:defRPr sz="1200"/>
-                      </a:pPr>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
+                      <a:t>cultural ecosystem</a:t>
+                    </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -27508,34 +26777,7 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -27544,6 +26786,7 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:delete val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -27573,12 +26816,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -28223,19 +27460,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="895634688"/>
-        <c:axId val="895643648"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="74495488"/>
+        <c:axId val="74497024"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -30562,15 +29791,13 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="895634688"/>
+        <c:axId val="74495488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -30605,22 +29832,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895643648"/>
+        <c:crossAx val="74497024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="895643648"/>
+        <c:axId val="74497024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2200000000000007E-8"/>
+          <c:max val="1.2200000000000012E-8"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -30633,7 +29858,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -30666,7 +29890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895634688"/>
+        <c:crossAx val="74495488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30680,7 +29904,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -30704,7 +29927,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -33113,7 +32336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33148,7 +32371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33325,26 +32548,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102">
       <c r="B1">
         <v>1900</v>
       </c>
@@ -33649,7 +32872,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -33957,7 +33180,7 @@
         <v>2.04058151903607E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -34265,7 +33488,7 @@
         <v>4.8819538656097397E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -34573,7 +33796,7 @@
         <v>1.18828889644762E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -34881,7 +34104,7 @@
         <v>5.57055890970659E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -35189,7 +34412,7 @@
         <v>2.5336618653115602E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -35497,7 +34720,7 @@
         <v>2.9812125962313998E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -35805,7 +35028,7 @@
         <v>6.4187495957268502E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -36113,7 +35336,7 @@
         <v>1.1945194394735699E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -36421,7 +35644,7 @@
         <v>9.1286710079963003E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -36729,7 +35952,7 @@
         <v>1.3643569901633499E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -37044,19 +36267,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CX9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="E59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102">
       <c r="B1">
         <v>1900</v>
       </c>
@@ -37361,7 +36584,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -37669,7 +36892,7 @@
         <v>6.3580136294705197E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -37977,7 +37200,7 @@
         <v>1.76364864309941E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -38285,7 +37508,7 @@
         <v>1.6734235039339501E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -38593,7 +37816,7 @@
         <v>4.1338430803450302E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -38901,7 +38124,7 @@
         <v>1.01210332448253E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -39209,7 +38432,7 @@
         <v>1.0268315446190699E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -39517,7 +38740,7 @@
         <v>1.21044396537289E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102">
       <c r="A9" t="s">
         <v>18</v>
       </c>

--- a/figures/ecologies.xlsx
+++ b/figures/ecologies.xlsx
@@ -14,6 +14,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -658,10 +659,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856366E-2"/>
-          <c:y val="8.0086362962469335E-2"/>
-          <c:w val="0.77890254552278138"/>
-          <c:h val="0.84175274172992509"/>
+          <c:x val="5.9632353471856372E-2"/>
+          <c:y val="8.0086362962469376E-2"/>
+          <c:w val="0.77890254552278149"/>
+          <c:h val="0.84175274172992498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -695,7 +696,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="100"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1457,7 +1457,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="100"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2988,7 +2987,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="100"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3716,7 +3714,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="100"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4447,7 +4444,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="6.4777322428527335E-3"/>
+                  <c:y val="6.4777322428527353E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5181,8 +5178,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428527335E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428527353E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5916,8 +5913,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428527335E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428527353E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6651,8 +6648,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428528922E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428528931E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7386,7 +7383,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="-1.5114708566656533E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -8857,13 +8854,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="71886720"/>
-        <c:axId val="71888256"/>
+        <c:axId val="66388352"/>
+        <c:axId val="66390272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71886720"/>
+        <c:axId val="66388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8904,7 +8900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71888256"/>
+        <c:crossAx val="66390272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8912,7 +8908,7 @@
         <c:tickLblSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71888256"/>
+        <c:axId val="66390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8960,7 +8956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71886720"/>
+        <c:crossAx val="66388352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9002,7 +8998,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -9019,10 +9015,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856366E-2"/>
-          <c:y val="8.0086362962469335E-2"/>
-          <c:w val="0.77890254552278138"/>
-          <c:h val="0.84175274172992509"/>
+          <c:x val="5.9632353471856372E-2"/>
+          <c:y val="8.0086362962469376E-2"/>
+          <c:w val="0.77890254552278149"/>
+          <c:h val="0.84175274172992498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -10588,8 +10584,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428527335E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428527353E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -11323,8 +11319,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428528922E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428528931E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -13529,10 +13525,9 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="72718208"/>
-        <c:axId val="72719744"/>
+        <c:axId val="64312832"/>
+        <c:axId val="64314368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -17386,7 +17381,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72718208"/>
+        <c:axId val="64312832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17427,7 +17422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72719744"/>
+        <c:crossAx val="64314368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17435,7 +17430,7 @@
         <c:tickLblSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72719744"/>
+        <c:axId val="64314368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17483,7 +17478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72718208"/>
+        <c:crossAx val="64312832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17525,7 +17520,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -17542,10 +17537,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856366E-2"/>
-          <c:y val="8.0086362962469335E-2"/>
+          <c:x val="5.9632353471856372E-2"/>
+          <c:y val="8.0086362962469376E-2"/>
           <c:w val="0.76301498059763606"/>
-          <c:h val="0.84175274172992509"/>
+          <c:h val="0.84175274172992498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -17581,7 +17576,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="1.2955464485705307E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -18335,8 +18330,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-1.7273952647607449E-2"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-1.7273952647607452E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -19064,7 +19059,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="-2.1592440809509112E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -19820,8 +19815,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-2.5910928971410934E-2"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-2.5910928971410938E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -20571,7 +20566,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2221203788573176E-3"/>
+                  <c:x val="-1.2221203788573178E-3"/>
                   <c:y val="-4.3184881619018223E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -21300,8 +21295,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-6.4777322428527335E-3"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-6.4777322428527353E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -22053,8 +22048,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-2.1592440809509113E-2"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-2.1592440809509117E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -22806,7 +22801,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="-1.7273952647607289E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -23529,13 +23524,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="72771456"/>
-        <c:axId val="72772992"/>
+        <c:axId val="64845312"/>
+        <c:axId val="64846848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72771456"/>
+        <c:axId val="64845312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23576,7 +23570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72772992"/>
+        <c:crossAx val="64846848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23584,7 +23578,7 @@
         <c:tickLblSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72772992"/>
+        <c:axId val="64846848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23632,7 +23626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72771456"/>
+        <c:crossAx val="64845312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23669,7 +23663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -23686,10 +23680,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9632353471856366E-2"/>
-          <c:y val="8.0086362962469335E-2"/>
+          <c:x val="5.9632353471856372E-2"/>
+          <c:y val="8.0086362962469376E-2"/>
           <c:w val="0.76301498059763606"/>
-          <c:h val="0.84175274172992509"/>
+          <c:h val="0.84175274172992498"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -23725,7 +23719,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="1.2955464485705307E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -24478,7 +24472,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="-2.1592440809509112E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -25232,7 +25226,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="4.3184881619018223E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -25985,8 +25979,8 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
-                  <c:y val="-2.1592440809509113E-2"/>
+                  <c:x val="-1.7924225161062098E-16"/>
+                  <c:y val="-2.1592440809509117E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -26738,7 +26732,7 @@
               <c:idx val="100"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7924225161062078E-16"/>
+                  <c:x val="-1.7924225161062098E-16"/>
                   <c:y val="-1.7273952647607289E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -27461,10 +27455,9 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="74495488"/>
-        <c:axId val="74497024"/>
+        <c:axId val="65778816"/>
+        <c:axId val="65780352"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -29791,7 +29784,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74495488"/>
+        <c:axId val="65778816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29832,7 +29825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74497024"/>
+        <c:crossAx val="65780352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29840,10 +29833,10 @@
         <c:tickLblSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74497024"/>
+        <c:axId val="65780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2200000000000012E-8"/>
+          <c:max val="1.2200000000000018E-8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -29890,7 +29883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74495488"/>
+        <c:crossAx val="65778816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29927,7 +29920,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -32548,7 +32541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
